--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterHours_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
   <si>
     <t>ModuleName</t>
   </si>
@@ -259,12 +259,25 @@
   </si>
   <si>
     <t>tskNT_ExecuteTask_MTAfterHours</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14-05-2024</t>
+  </si>
+  <si>
+    <t>17-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET308</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,33 +622,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="16" style="1" width="9.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -770,8 +783,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>72</v>
+      <c r="K2" t="s" s="1">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -779,10 +792,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s" s="1">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -830,11 +843,11 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>71</v>
+      <c r="AG2" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -856,24 +869,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1008,7 +1021,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>72</v>
       </c>
       <c r="L2" s="1">
@@ -1017,10 +1030,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1070,7 +1083,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>76</v>
       </c>
     </row>
@@ -1093,14 +1106,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1235,7 +1248,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>72</v>
       </c>
       <c r="L2" s="1">
@@ -1244,10 +1257,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1297,7 +1310,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>77</v>
       </c>
     </row>
@@ -1320,13 +1333,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1461,7 +1474,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>72</v>
       </c>
       <c r="L2" s="1">
@@ -1470,10 +1483,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1523,7 +1536,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>77</v>
       </c>
     </row>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterHours_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
   <si>
     <t>ModuleName</t>
   </si>
@@ -237,47 +237,31 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>03-05-2024</t>
-  </si>
-  <si>
-    <t>03-05-2024 12:17:28 PM</t>
-  </si>
-  <si>
-    <t>ET118</t>
-  </si>
-  <si>
-    <t>03-05-2024 12:23:30 PM</t>
-  </si>
-  <si>
     <t>ET119</t>
   </si>
   <si>
     <t>ET120</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_MTAfterHours</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>14-05-2024</t>
-  </si>
-  <si>
-    <t>17-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>ET308</t>
+    <t>18-07-2024</t>
+  </si>
+  <si>
+    <t>21-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2644</t>
+  </si>
+  <si>
+    <t>ET_MTAfterHours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,39 +600,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
-    <col min="10" max="16" style="1" width="9.1796875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.1796875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
-    <col min="34" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -783,8 +767,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>80</v>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -792,10 +776,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s" s="1">
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -832,7 +816,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -843,11 +827,11 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>79</v>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -864,29 +848,29 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1021,8 +1005,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>72</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1030,10 +1014,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1070,7 +1054,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1083,8 +1067,8 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>76</v>
+      <c r="AG2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1101,19 +1085,19 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1248,8 +1232,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>72</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1257,10 +1241,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1297,7 +1281,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1310,8 +1294,8 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>77</v>
+      <c r="AG2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1327,19 +1311,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1474,8 +1458,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>72</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1483,10 +1467,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1523,7 +1507,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1536,8 +1520,8 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>77</v>
+      <c r="AG2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterHours_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="80">
   <si>
     <t>ModuleName</t>
   </si>
@@ -256,12 +256,19 @@
   </si>
   <si>
     <t>ET_MTAfterHours</t>
+  </si>
+  <si>
+    <t>13-01-2025</t>
+  </si>
+  <si>
+    <t>16-01-2025 05:00:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,33 +613,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="16" style="1" width="9.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -767,8 +774,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="1">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -776,10 +783,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="1">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -830,7 +837,7 @@
       <c r="AG2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>73</v>
       </c>
     </row>
@@ -853,24 +860,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1005,8 +1012,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1014,10 +1021,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1067,7 +1074,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -1090,14 +1097,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1232,8 +1239,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1241,10 +1248,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1294,7 +1301,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>72</v>
       </c>
     </row>
@@ -1317,13 +1324,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1458,8 +1465,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1467,10 +1474,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1520,7 +1527,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>72</v>
       </c>
     </row>
